--- a/Data Analyst/Analisa Cost Maintenance.xlsx
+++ b/Data Analyst/Analisa Cost Maintenance.xlsx
@@ -515,12 +515,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
+          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -528,11 +528,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>67792.5</v>
+        <v>66066.18000000001</v>
       </c>
     </row>
     <row r="3">
@@ -561,12 +561,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
+          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -574,11 +574,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>66066.18000000001</v>
+        <v>67792.5</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +653,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -926,11 +926,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[10AMPER] SEKRING TUSUK BESAR 10 AMPER KAKI PANJANG</t>
+          <t>[003470] BALON LAMPU H4 24V</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="12">
@@ -972,11 +972,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[003470] BALON LAMPU H4 24V</t>
+          <t>[10AMPER] SEKRING TUSUK BESAR 10 AMPER KAKI PANJANG</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>33500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EXHAUST</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[002982] PER ENGINE BREAK HINO FM260 </t>
+          <t>[001360] TALI PTO 5,5 MTR</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="31">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>EXHAUST</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[001360] TALI PTO 5,5 MTR</t>
+          <t xml:space="preserve">[002982] PER ENGINE BREAK HINO FM260 </t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>185000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2109,24 +2109,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>HYDRAULIC&amp;GEAR</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[COUPLING.020] COUPLING HYDRAULIC NM 10-10 R12 5/8''</t>
+          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100000</v>
+        <v>645000</v>
       </c>
     </row>
     <row r="38">
@@ -2155,24 +2155,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HYDRAULIC&amp;GEAR</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
+          <t>[PART.0069] SEKRING BOTOL 15 AMPER</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>645000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
@@ -2201,16 +2201,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[PART.0069] SEKRING BOTOL 15 AMPER</t>
+          <t>[COUPLING.020] COUPLING HYDRAULIC NM 10-10 R12 5/8''</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>300</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="40">
@@ -2293,16 +2293,16 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>SERVIS</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[002690] BAUT 12 PANJANG 5 CM</t>
+          <t>[S450U-EV110] KARET CHAMBER BELAKANG HINO FM260JD</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2339,16 +2339,16 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SERVIS</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[S450U-EV110] KARET CHAMBER BELAKANG HINO FM260JD</t>
+          <t>[002690] BAUT 12 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="43">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[VBELT8460] V-BELT 8460 HINO</t>
+          <t>[SZ311-01046] SEAL RODA DEPAN SZ311-01046</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>143000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[SZ311-01046] SEAL RODA DEPAN SZ311-01046</t>
+          <t>[VBELT8460] V-BELT 8460 HINO</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="51">
@@ -2841,24 +2841,24 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
+          <t>[OLIMEDSXV154] OLI MEDITRAN SXV SAE 15W-40 PERTAMINA @200LTR</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>33033.09</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="54">
@@ -2887,24 +2887,24 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[OLIMEDSXV154] OLI MEDITRAN SXV SAE 15W-40 PERTAMINA @200LTR</t>
+          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>120000</v>
+        <v>33033.09</v>
       </c>
     </row>
     <row r="55">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3255,16 +3255,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
+          <t>[BENSINPERT00] BENSIN/PERTALITE</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>102750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="63">
@@ -3347,16 +3347,16 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[BENSINPERT00] BENSIN/PERTALITE</t>
+          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>30000</v>
+        <v>102750</v>
       </c>
     </row>
     <row r="65">
@@ -4126,11 +4126,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0442A-JAA80] BAUT RODA SET HINO FM260JD</t>
+          <t>[002454] BAN DALAM 1100-R20</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>319500</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="82">
@@ -4172,11 +4172,11 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[002454] BAN DALAM 1100-R20</t>
+          <t>[0442A-JAA80] BAUT RODA SET HINO FM260JD</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>660000</v>
+        <v>319500</v>
       </c>
     </row>
     <row r="83">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>KAMPAS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[S301A-EV600] REPAIR KIT CLUTCH BOOSTER HINO</t>
+          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>4804500</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="85">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>KAMPAS</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
+          <t>[S301A-EV600] REPAIR KIT CLUTCH BOOSTER HINO</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>250000</v>
+        <v>4804500</v>
       </c>
     </row>
     <row r="86">
@@ -4351,16 +4351,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[002690] BAUT 12 PANJANG 5 CM</t>
+          <t>[S7801-85160] LABRANG ENGINE STOP S7801-85160</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>5100</v>
+        <v>83250</v>
       </c>
     </row>
     <row r="87">
@@ -4443,16 +4443,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[002472] SEKRING TUSUK KECIL 10 AMPER KAKI PANJANG</t>
+          <t>[002690] BAUT 12 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1500</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="89">
@@ -4489,16 +4489,16 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[S7801-85160] LABRANG ENGINE STOP S7801-85160</t>
+          <t>[002472] SEKRING TUSUK KECIL 10 AMPER KAKI PANJANG</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>83250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="90">
@@ -4757,16 +4757,16 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>SERVIS</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
+          <t>[32313JR] BEARING RODA DEPA B.DALAM HINO 32313JR KOYO</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>258750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4803,16 +4803,16 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>SERVIS</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[32313JR] BEARING RODA DEPA B.DALAM HINO 32313JR KOYO</t>
+          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>258750</v>
       </c>
     </row>
     <row r="97">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
+          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>258750</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="102">
@@ -5084,11 +5084,11 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
+          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>2800</v>
+        <v>258750</v>
       </c>
     </row>
     <row r="103">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5577,16 +5577,16 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>SIKAT</t>
+          <t>BODY</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[1900082] SIKAT KAWAT BENGKOK STAINLESS WIPRO SB-HJ23</t>
+          <t>[MUR12] MUR 12</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="114">
@@ -5623,16 +5623,16 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>BODY</t>
+          <t>SIKAT</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[MUR12] MUR 12</t>
+          <t>[1900082] SIKAT KAWAT BENGKOK STAINLESS WIPRO SB-HJ23</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6611,24 +6611,24 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[SZ341-18011] BAUT PEMBUANGAN OLI GARDAN</t>
+          <t>[OLIMEDIHDA90] OLI MEDITRANS HDA 90 PERTAMINA @209LTR</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>190500</v>
+        <v>462673.25</v>
       </c>
     </row>
     <row r="137">
@@ -6657,24 +6657,24 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>GANTI</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[OLIMEDIHDA90] OLI MEDITRANS HDA 90 PERTAMINA @209LTR</t>
+          <t>[SZ341-18011] BAUT PEMBUANGAN OLI GARDAN</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>462673.25</v>
+        <v>190500</v>
       </c>
     </row>
     <row r="138">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[CT-70B] DRAG LAHER HINO FM260</t>
+          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>285000</v>
+        <v>67792.5</v>
       </c>
     </row>
     <row r="147">
@@ -7117,12 +7117,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>BAUT</t>
+          <t>SEAL</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[SZ101-16102] BAUT AS BLOCK SZ101-16102 HINO</t>
+          <t>[SZ311-01045] SEAL CRANSHAFT BLKNG SZ311-01045 FM260</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -7134,7 +7134,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>95250</v>
+        <v>381000</v>
       </c>
     </row>
     <row r="148">
@@ -7163,12 +7163,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>SEAL</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[SZ311-01045] SEAL CRANSHAFT BLKNG SZ311-01045 FM260</t>
+          <t>[CT-70B] DRAG LAHER HINO FM260</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>381000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="149">
@@ -7209,12 +7209,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>BAUT</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
+          <t>[SZ101-16102] BAUT AS BLOCK SZ101-16102 HINO</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>67792.5</v>
+        <v>95250</v>
       </c>
     </row>
     <row r="150">
@@ -7611,12 +7611,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[PART.0204] PER KAMPAS REM DEPAN/BELAKANG HINO NEW RANGER</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="159">
@@ -7662,11 +7662,11 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[N43090-90060D] SEAL RODA BELAKANG HINO N43090-90060D</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>65765.63</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="160">
@@ -7708,11 +7708,11 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[N43090-90060D] SEAL RODA BELAKANG HINO N43090-90060D</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>495000</v>
+        <v>65765.63</v>
       </c>
     </row>
     <row r="161">
@@ -7749,12 +7749,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[PART.0204] PER KAMPAS REM DEPAN/BELAKANG HINO NEW RANGER</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7766,7 +7766,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70500</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="162">
@@ -7933,12 +7933,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[41421-EV040] KARET CHAMBER TENGAH HINO FM260JD</t>
+          <t>[002559] CENTER BAUT BELAKANG HINO FM260</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>715500</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="166">
@@ -7979,12 +7979,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[002559] CENTER BAUT BELAKANG HINO FM260</t>
+          <t>[41421-EV040] KARET CHAMBER TENGAH HINO FM260JD</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>95000</v>
+        <v>715500</v>
       </c>
     </row>
     <row r="167">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[002454] BAN DALAM 1100-R20</t>
+          <t>[CT-35] TIP-TOP</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>660000</v>
+        <v>203358.52</v>
       </c>
     </row>
     <row r="174">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[CT-35] TIP-TOP</t>
+          <t>[002454] BAN DALAM 1100-R20</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>203358.52</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="175">
@@ -8854,15 +8854,15 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>PAIL 15 KG</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1981.9854</v>
+        <v>33033.09</v>
       </c>
     </row>
     <row r="186">
@@ -8900,15 +8900,15 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PAIL 15 KG</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>33033.09</v>
+        <v>1981.9854</v>
       </c>
     </row>
     <row r="187">
@@ -9122,11 +9122,11 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
+          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1297297.36</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="192">
@@ -9168,11 +9168,11 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
+          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>35000</v>
+        <v>1297297.36</v>
       </c>
     </row>
     <row r="193">
@@ -9393,16 +9393,16 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[17801-1130L] AIR CLEANER DUTRO</t>
+          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>81750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="198">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
+          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -9456,7 +9456,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="199">
@@ -9485,12 +9485,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>KAMPAS</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
+          <t>[17801-1130L] AIR CLEANER DUTRO</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>125000</v>
+        <v>81750</v>
       </c>
     </row>
     <row r="200">
@@ -9531,16 +9531,16 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>KAMPAS</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
+          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2800</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="201">
@@ -10175,12 +10175,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[SEALTAPE1007] SEAL TAPE 1"X0.075MMX10M</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>4000</v>
+        <v>62224.38</v>
       </c>
     </row>
     <row r="215">
@@ -10221,12 +10221,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[SEALTAPE1007] SEAL TAPE 1"X0.075MMX10M</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>62224.38</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="216">
@@ -10594,11 +10594,11 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>124448.76</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="224">
@@ -10640,11 +10640,11 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>352500</v>
+        <v>124448.76</v>
       </c>
     </row>
     <row r="225">
@@ -12230,11 +12230,11 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[HN0105-03] PER DEPAN NO.3 HINO RANGER HN0105-3  FM260JD</t>
+          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>554072.1</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="260">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
+          <t>[HN0105-03] PER DEPAN NO.3 HINO RANGER HN0105-3  FM260JD</t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>59250</v>
+        <v>554072.1</v>
       </c>
     </row>
     <row r="261">
@@ -12368,11 +12368,11 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
+          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>30000</v>
+        <v>59250</v>
       </c>
     </row>
     <row r="263">
@@ -12598,11 +12598,11 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[BAUT.003] BAUT 10 X 3 CM</t>
+          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>1787301.64</v>
       </c>
     </row>
     <row r="268">
@@ -12644,11 +12644,11 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
+          <t>[BAUT.003] BAUT 10 X 3 CM</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1787301.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -12736,11 +12736,11 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>495000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="271">
@@ -12828,11 +12828,11 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>70500</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="273">
@@ -12874,11 +12874,11 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[GUM-88] CROSS JOINT PTO GUM-88 NS CWA 260</t>
+          <t>[HN0105-02] PER DEPAN NO.2 HINO RANGER HN0105-2 FM260JD</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>250000</v>
+        <v>646175.5</v>
       </c>
     </row>
     <row r="274">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>[PART.COUP.014] COUPLING HYDRAULIC HTC 08-08 (1/2'')</t>
+          <t>[002024] CENTER BAUT DEPAN HINO FM260</t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="275">
@@ -12966,11 +12966,11 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[HN0105-02] PER DEPAN NO.2 HINO RANGER HN0105-2 FM260JD</t>
+          <t>[GUM-88] CROSS JOINT PTO GUM-88 NS CWA 260</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>646175.5</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="276">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[002024] CENTER BAUT DEPAN HINO FM260</t>
+          <t>[PART.COUP.014] COUPLING HYDRAULIC HTC 08-08 (1/2'')</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -13058,19 +13058,19 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>99099.27000000002</v>
+        <v>62224.38</v>
       </c>
     </row>
     <row r="278">
@@ -13104,19 +13104,19 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>62224.38</v>
+        <v>99099.27000000002</v>
       </c>
     </row>
     <row r="279">
@@ -13564,11 +13564,11 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>[002024] CENTER BAUT DEPAN HINO FM260</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>14000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="289">
@@ -13610,11 +13610,11 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[002024] CENTER BAUT DEPAN HINO FM260</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>340000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="290">
@@ -13832,11 +13832,11 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
+          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>352500</v>
+        <v>1195500</v>
       </c>
     </row>
     <row r="295">
@@ -13878,11 +13878,11 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
+          <t>[N30100-Z5572D] KAMPAS KOPLING NISSAN</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1195500</v>
+        <v>1340540.5</v>
       </c>
     </row>
     <row r="296">
@@ -13924,11 +13924,11 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>[N30100-Z5572D] KAMPAS KOPLING NISSAN</t>
+          <t>[MUR17] MUR 17</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1340540.5</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="297">
@@ -13970,11 +13970,11 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[MUR17] MUR 17</t>
+          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1034</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="298">
@@ -14062,11 +14062,11 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>[S1206-EW050] MONTING MESIN BELAKANG HINO FM260JD S1206-EW050</t>
+          <t>[MUR12] MUR 12</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>624750</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="300">
@@ -14154,11 +14154,11 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t>[BAUT.010] BAUT + MUR 19 X 7 CM</t>
         </is>
       </c>
       <c r="H301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>11400</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="302">
@@ -14200,11 +14200,11 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[MUR12] MUR 12</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H302" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1850</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="303">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>[BAUT.010] BAUT + MUR 19 X 7 CM</t>
+          <t>[S1206-EW050] MONTING MESIN BELAKANG HINO FM260JD S1206-EW050</t>
         </is>
       </c>
       <c r="H303" t="n">
@@ -14258,7 +14258,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>4500</v>
+        <v>624750</v>
       </c>
     </row>
     <row r="304">
@@ -14840,11 +14840,11 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>70500</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="317">
@@ -14886,11 +14886,11 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H317" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>990000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="318">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -15651,16 +15651,16 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>[KACAMIKA5480] KACA MIKA BENING 5MM X 4FEET X 8FEET</t>
+          <t>[KLAKSON24VOL] KLAKSON 24 VOLT</t>
         </is>
       </c>
       <c r="H334" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>259009</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="335">
@@ -15697,16 +15697,16 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>[KLAKSON24VOL] KLAKSON 24 VOLT</t>
+          <t>[KACAMIKA5480] KACA MIKA BENING 5MM X 4FEET X 8FEET</t>
         </is>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I335" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>160000</v>
+        <v>259009</v>
       </c>
     </row>
     <row r="336">
@@ -15836,11 +15836,11 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>[001360] TALI PTO 5,5 MTR</t>
+          <t>[003464] BAUT STABILIZER HINO BAJA 11 CM MERK BK</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>185000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="339">
@@ -15877,16 +15877,16 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>[003464] BAUT STABILIZER HINO BAJA 11 CM MERK BK</t>
+          <t>[001360] TALI PTO 5,5 MTR</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>110000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="340">
@@ -16107,16 +16107,16 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>[001360] TALI PTO 5,5 MTR</t>
+          <t>[002690] BAUT 12 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I344" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>185000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="345">
@@ -16153,16 +16153,16 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>[002690] BAUT 12 PANJANG 5 CM</t>
+          <t>[001360] TALI PTO 5,5 MTR</t>
         </is>
       </c>
       <c r="H345" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I345" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="346">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
+          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
         </is>
       </c>
       <c r="H358" t="n">
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>352500</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="359">
@@ -16790,7 +16790,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
+          <t>[17801-JAA10A] AIR CLEANER 17801-JAA10A HINO 500 (OUTER)</t>
         </is>
       </c>
       <c r="H359" t="n">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>36000</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="360">
@@ -16836,11 +16836,11 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S3140-11140] MASTER KOPLENG ATAS S3140-11140 HINO</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>495000</v>
+        <v>942750</v>
       </c>
     </row>
     <row r="361">
@@ -16882,11 +16882,11 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[S3140-11140] MASTER KOPLENG ATAS S3140-11140 HINO</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>942750</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="362">
@@ -17057,16 +17057,16 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>PIN</t>
+          <t>BUSHING</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[48423-EW020] PIN SPRING BRACKET/PEN PER DPN BAG BLKNG 48423-EW020</t>
+          <t>[SZ940-87035] BUSHING PER DEPAN SZ940-87035 HINO FM260JD</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>107250</v>
+        <v>586500</v>
       </c>
     </row>
     <row r="366">
@@ -17103,16 +17103,16 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[HN0105-04] PER DEPAN NO.4 HINO RANGER HN0105-4  FM260JD</t>
+          <t>[BAUT.009] BAUT 17 X 7 CM</t>
         </is>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>828207.16</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="367">
@@ -17149,16 +17149,16 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>BUSHING</t>
+          <t>PIN</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[SZ940-87035] BUSHING PER DEPAN SZ940-87035 HINO FM260JD</t>
+          <t>[48423-EW020] PIN SPRING BRACKET/PEN PER DPN BAG BLKNG 48423-EW020</t>
         </is>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>586500</v>
+        <v>107250</v>
       </c>
     </row>
     <row r="368">
@@ -17195,12 +17195,12 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
+          <t>[M20X83X250] BEHEL PER DEPAN HINO FM260 (M20X83X250MM) IBK HN05-1</t>
         </is>
       </c>
       <c r="H368" t="n">
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="369">
@@ -17287,16 +17287,16 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[BAUT.009] BAUT 17 X 7 CM</t>
+          <t>[HN0105-04] PER DEPAN NO.4 HINO RANGER HN0105-4  FM260JD</t>
         </is>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>2800</v>
+        <v>828207.16</v>
       </c>
     </row>
     <row r="371">
@@ -17333,12 +17333,12 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>[48423-EW010] PIN SPRING BRACKET/PEN PER DEPAN BAG DEPAN 48423-EW010</t>
+          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
         </is>
       </c>
       <c r="H371" t="n">
@@ -17350,7 +17350,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>217500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="372">
@@ -17384,7 +17384,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>[M20X83X250] BEHEL PER DEPAN HINO FM260 (M20X83X250MM) IBK HN05-1</t>
+          <t>[48423-EW010] PIN SPRING BRACKET/PEN PER DEPAN BAG DEPAN 48423-EW010</t>
         </is>
       </c>
       <c r="H372" t="n">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>180000</v>
+        <v>217500</v>
       </c>
     </row>
     <row r="373">
@@ -18191,12 +18191,12 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>[HN00116-02] PER BELAKANG NO. 2 HINO RANGER HN00116-02</t>
+          <t>[HN00116-10] PER BELAKANG NO. 10 HINO RANGER HN00116-10</t>
         </is>
       </c>
       <c r="H390" t="n">
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>828000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -18237,12 +18237,12 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>[HN00116-10] PER BELAKANG NO. 10 HINO RANGER HN00116-10</t>
+          <t>[HN00116-02] PER BELAKANG NO. 2 HINO RANGER HN00116-02</t>
         </is>
       </c>
       <c r="H391" t="n">
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>0</v>
+        <v>828000</v>
       </c>
     </row>
     <row r="392">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[44730-E0060] VALVE ASSY VACUUM CHECK 44730-E0060</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H415" t="n">
@@ -19330,7 +19330,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>0</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="416">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[09203948] SEAL RUBBER TEFLON BRAKE CHAMBER 20-39-48MM</t>
+          <t>[S407Q-EV040] REPAIRT KIT RELAY VALVE HINO S407Q-EV040 FM260JD</t>
         </is>
       </c>
       <c r="H416" t="n">
@@ -19376,7 +19376,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>125000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="417">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[09203948] SEAL RUBBER TEFLON BRAKE CHAMBER 20-39-48MM</t>
         </is>
       </c>
       <c r="H417" t="n">
@@ -19422,7 +19422,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>70500</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="418">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[S4790-41090] VALVE SUB ASSY HINO S4790-41090 FM260JD</t>
+          <t>[44730-E0060] VALVE ASSY VACUUM CHECK 44730-E0060</t>
         </is>
       </c>
       <c r="H418" t="n">
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>547500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>[003615] LEM THREEBOND MERAH</t>
+          <t>[S4790-41090] VALVE SUB ASSY HINO S4790-41090 FM260JD</t>
         </is>
       </c>
       <c r="H419" t="n">
@@ -19514,7 +19514,7 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>35000</v>
+        <v>547500</v>
       </c>
     </row>
     <row r="420">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[S407Q-EV040] REPAIRT KIT RELAY VALVE HINO S407Q-EV040 FM260JD</t>
+          <t>[003615] LEM THREEBOND MERAH</t>
         </is>
       </c>
       <c r="H420" t="n">
@@ -19560,7 +19560,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>350000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="421">
@@ -19589,16 +19589,16 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
         </is>
       </c>
       <c r="H421" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>990000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -19635,16 +19635,16 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>0</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="423">
@@ -19773,24 +19773,24 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>HYDRAULIC&amp;GEAR</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H425" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>860000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="426">
@@ -19911,24 +19911,24 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>HYDRAULIC&amp;GEAR</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
         </is>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>5700</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="429">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
+          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
         </is>
       </c>
       <c r="H437" t="n">
@@ -20334,7 +20334,7 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>1787301.64</v>
+        <v>517500</v>
       </c>
     </row>
     <row r="438">
@@ -20368,11 +20368,11 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
+          <t>[PLK-LL-110] ISOLASI KABEL NATIONAL</t>
         </is>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>517500</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="439">
@@ -20460,11 +20460,11 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>[PLK-LL-110] ISOLASI KABEL NATIONAL</t>
+          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
         </is>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>5135</v>
+        <v>1787301.64</v>
       </c>
     </row>
     <row r="441">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -21272,11 +21272,11 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[HN00116-05] PER BELAKANG NO.5 HINO RANGER HN00116-05</t>
         </is>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>340000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -21318,11 +21318,11 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>[HN00116-05] PER BELAKANG NO.5 HINO RANGER HN00116-05</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>0</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="460">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[HN00116-03] PER BELAKANG NO. 3 HINO RANGER HN00116-03</t>
         </is>
       </c>
       <c r="H460" t="n">
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>340000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="461">
@@ -21410,7 +21410,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>[HN00116-03] PER BELAKANG NO. 3 HINO RANGER HN00116-03</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H461" t="n">
@@ -21422,7 +21422,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>1680000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="462">
@@ -21732,11 +21732,11 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
+          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
         </is>
       </c>
       <c r="H468" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>1297297.36</v>
+        <v>108032</v>
       </c>
     </row>
     <row r="469">
@@ -21778,11 +21778,11 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
+          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
         </is>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I469" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>108032</v>
+        <v>1297297.36</v>
       </c>
     </row>
     <row r="470">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
+          <t>[N30100-Z5572D] KAMPAS KOPLING NISSAN</t>
         </is>
       </c>
       <c r="H478" t="n">
@@ -22192,7 +22192,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>125000</v>
+        <v>1340540.5</v>
       </c>
     </row>
     <row r="479">
@@ -22226,7 +22226,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>[N30100-Z5572D] KAMPAS KOPLING NISSAN</t>
+          <t>[646-10606] PISTON KOPLENG HINO 642-11310/10606 19.8MM</t>
         </is>
       </c>
       <c r="H479" t="n">
@@ -22238,7 +22238,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1340540.5</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="480">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>[HN0105-05] PER DEPAN NO.5 HINO RANGER HN0105-5  FM260JD</t>
+          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
         </is>
       </c>
       <c r="H480" t="n">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>353184.7</v>
+        <v>67792.5</v>
       </c>
     </row>
     <row r="481">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
+          <t>[HN0105-05] PER DEPAN NO.5 HINO RANGER HN0105-5  FM260JD</t>
         </is>
       </c>
       <c r="H481" t="n">
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>67792.5</v>
+        <v>353184.7</v>
       </c>
     </row>
     <row r="482">
@@ -22448,11 +22448,11 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>[002690] BAUT 12 PANJANG 5 CM</t>
+          <t>[9872-03117] PER KOPLING ATAS 9872-03117/SZ502-03008</t>
         </is>
       </c>
       <c r="H484" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>6800</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="485">
@@ -22494,11 +22494,11 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>[9872-03117] PER KOPLING ATAS 9872-03117/SZ502-03008</t>
+          <t>[002690] BAUT 12 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I485" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>441000</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="486">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t xml:space="preserve">[23401-LBH30] ELEMENT HINO RANGER </t>
+          <t>[092130-0220] POMPA SOLAR COLD DIESEL PS 120 092130-0220</t>
         </is>
       </c>
       <c r="H486" t="n">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>74100</v>
+        <v>270270.25</v>
       </c>
     </row>
     <row r="487">
@@ -22586,7 +22586,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>[092130-0220] POMPA SOLAR COLD DIESEL PS 120 092130-0220</t>
+          <t xml:space="preserve">[23401-LBH30] ELEMENT HINO RANGER </t>
         </is>
       </c>
       <c r="H487" t="n">
@@ -22598,7 +22598,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>270270.25</v>
+        <v>74100</v>
       </c>
     </row>
     <row r="488">
@@ -22674,11 +22674,11 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
+          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
         </is>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>120009</v>
+        <v>102750</v>
       </c>
     </row>
     <row r="490">
@@ -22715,16 +22715,16 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
+          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
         </is>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>102750</v>
+        <v>120009</v>
       </c>
     </row>
     <row r="491">
@@ -22807,16 +22807,16 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>KABEL</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>[002331] BALON LAMPU 2 KAKI 24 VOLT</t>
+          <t>[S8332-02350] KABEL INDIKATOR SOLAR S8332-02350/83320-E0450</t>
         </is>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>30000</v>
+        <v>1629750</v>
       </c>
     </row>
     <row r="493">
@@ -22853,16 +22853,16 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>KABEL</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>[S8332-02350] KABEL INDIKATOR SOLAR S8332-02350/83320-E0450</t>
+          <t>[002331] BALON LAMPU 2 KAKI 24 VOLT</t>
         </is>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>1629750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="494">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -22945,16 +22945,16 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>HOSE</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>[47441-9650LN] KAMPAS REM BELAKANG HINO 47441-9650LN</t>
+          <t>[S4703-E0E90] HOSE SUB ASSY AIR HINO</t>
         </is>
       </c>
       <c r="H495" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I495" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>0</v>
+        <v>1005750</v>
       </c>
     </row>
     <row r="496">
@@ -22991,16 +22991,16 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>HOSE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>[S4703-E0E90] HOSE SUB ASSY AIR HINO</t>
+          <t>[47441-9650LN] KAMPAS REM BELAKANG HINO 47441-9650LN</t>
         </is>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>1005750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -23079,7 +23079,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -23171,16 +23171,16 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
         </is>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I500" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>340000</v>
+        <v>648648.6800000001</v>
       </c>
     </row>
     <row r="501">
@@ -23217,16 +23217,16 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
+          <t>[M20X83X250] BEHEL PER DEPAN HINO FM260 (M20X83X250MM) IBK HN05-1</t>
         </is>
       </c>
       <c r="H501" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>648648.6800000001</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="502">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>[M20X83X250] BEHEL PER DEPAN HINO FM260 (M20X83X250MM) IBK HN05-1</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H502" t="n">
@@ -23280,7 +23280,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>180000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="503">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -23498,11 +23498,11 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>[003470] BALON LAMPU H4 24V</t>
+          <t>[002506] BAUT 10 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>33500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="508">
@@ -23544,19 +23544,19 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[SLIVE.005] SLIVE HYDRAULIC R12 3/4'' 4 PLY (00400-12)</t>
+          <t>[HOSEHYDHP344] HOSE HYDRAULIC 3/4 - 4PLY</t>
         </is>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>METER</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>45050</v>
+        <v>200984.4</v>
       </c>
     </row>
     <row r="509">
@@ -23590,11 +23590,11 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>[003217] O-RING ENGINE BREAKE 4 X 20</t>
+          <t>[SLIVE.005] SLIVE HYDRAULIC R12 3/4'' 4 PLY (00400-12)</t>
         </is>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>17000</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="510">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>[HOSEHYDHP344] HOSE HYDRAULIC 3/4 - 4PLY</t>
+          <t>[003470] BALON LAMPU H4 24V</t>
         </is>
       </c>
       <c r="H510" t="n">
@@ -23644,11 +23644,11 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>METER</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>200984.4</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="511">
@@ -23682,11 +23682,11 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>[002506] BAUT 10 PANJANG 5 CM</t>
+          <t>[003217] O-RING ENGINE BREAKE 4 X 20</t>
         </is>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="512">
@@ -23996,11 +23996,11 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>[003327] SEPATU KAMPAS REM BELAKANG HINO RANGER FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H518" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I518" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>4200000</v>
+        <v>1980000</v>
       </c>
     </row>
     <row r="519">
@@ -24042,11 +24042,11 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H519" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>1980000</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="520">
@@ -24088,11 +24088,11 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[003327] SEPATU KAMPAS REM BELAKANG HINO RANGER FM260JD</t>
         </is>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I520" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>141000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="521">
@@ -24129,16 +24129,16 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>EXHAUST</t>
+          <t>MUFFLER</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>[003217] O-RING ENGINE BREAKE 4 X 20</t>
+          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
         </is>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I521" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="522">
@@ -24175,16 +24175,16 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>MUFFLER</t>
+          <t>EXHAUST</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
+          <t>[003217] O-RING ENGINE BREAKE 4 X 20</t>
         </is>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I522" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="523">
@@ -24485,16 +24485,16 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>HANDLE</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>[69220-EW012] HANDLE ASSY OUTSIDE LH HINO FM260JD</t>
+          <t>[002940] BAUT 17 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I529" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>118500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="530">
@@ -24531,16 +24531,16 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>REKONDISI</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>[002257] CAT AVIAN HITAM 1 KG</t>
+          <t>[002690] BAUT 12 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I530" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>82000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="531">
@@ -24577,16 +24577,16 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>BODY</t>
+          <t>HMSI</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>[001117] KARBIT</t>
+          <t>[BAUT.005] BAUT 14 X 12.5 CM</t>
         </is>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I531" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="532">
@@ -24623,16 +24623,16 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>REKONDISI</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>[002940] BAUT 17 PANJANG 5 CM</t>
+          <t>[002257] CAT AVIAN HITAM 1 KG</t>
         </is>
       </c>
       <c r="H532" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I532" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>8800</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="533">
@@ -24715,16 +24715,16 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>SERVIS</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>[002690] BAUT 12 PANJANG 5 CM</t>
+          <t>[CC360CW] AMPLAS 360</t>
         </is>
       </c>
       <c r="H534" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>5100</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="535">
@@ -24761,16 +24761,16 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>HMSI</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>[002049] MATA GURINDA 4" TEBAL RESIBON</t>
+          <t>[003037] ISOLASI KERTAS  2,5 CM</t>
         </is>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>40540.56</v>
+        <v>10056.86</v>
       </c>
     </row>
     <row r="536">
@@ -24807,16 +24807,16 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>HMSI</t>
+          <t>HANDLE</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>[003037] ISOLASI KERTAS  2,5 CM</t>
+          <t>[69220-EW012] HANDLE ASSY OUTSIDE LH HINO FM260JD</t>
         </is>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>10056.86</v>
+        <v>118500</v>
       </c>
     </row>
     <row r="537">
@@ -24853,16 +24853,16 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>HMSI</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>[BAUT.005] BAUT 14 X 12.5 CM</t>
+          <t>[002049] MATA GURINDA 4" TEBAL RESIBON</t>
         </is>
       </c>
       <c r="H537" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I537" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>20000</v>
+        <v>40540.56</v>
       </c>
     </row>
     <row r="538">
@@ -24899,12 +24899,12 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>SERVIS</t>
+          <t>BODY</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>[CC360CW] AMPLAS 360</t>
+          <t>[001117] KARBIT</t>
         </is>
       </c>
       <c r="H538" t="n">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>5700</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="539">
@@ -24950,11 +24950,11 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>[002940] BAUT 17 PANJANG 5 CM</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I539" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>0</v>
+        <v>62224.38</v>
       </c>
     </row>
     <row r="540">
@@ -25042,11 +25042,11 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[002940] BAUT 17 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>62224.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -25167,7 +25167,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -25260,7 +25260,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>[PART.BAN.001] BAN LUAR GT-GA0822/GITI A 11.00R20 18PR</t>
+          <t>[CT-44] TIP-TOP CT-44</t>
         </is>
       </c>
       <c r="H546" t="n">
@@ -25272,7 +25272,7 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>9130000</v>
+        <v>233676</v>
       </c>
     </row>
     <row r="547">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>[CT-44] TIP-TOP CT-44</t>
+          <t>[PART.BAN.001] BAN LUAR GT-GA0822/GITI A 11.00R20 18PR</t>
         </is>
       </c>
       <c r="H547" t="n">
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>233676</v>
+        <v>9130000</v>
       </c>
     </row>
     <row r="548">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>[07000-72110 UT] O-RING</t>
+          <t>[6125-81-7032 UT] ELEMENT ASS'Y</t>
         </is>
       </c>
       <c r="H549" t="n">
@@ -25402,7 +25402,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>147852</v>
+        <v>905671.2</v>
       </c>
     </row>
     <row r="550">
@@ -25436,7 +25436,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>[600-311-8293 UT] CARTRIDGE</t>
+          <t>[600-411-1151 UT] CARTRIDGE</t>
         </is>
       </c>
       <c r="H550" t="n">
@@ -25448,7 +25448,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>96081.60000000001</v>
+        <v>220934.4</v>
       </c>
     </row>
     <row r="551">
@@ -25482,7 +25482,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>[07063-01054 UT] ELEMENT</t>
+          <t>[07000-02140 UT] O-RING</t>
         </is>
       </c>
       <c r="H551" t="n">
@@ -25494,7 +25494,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>108691.2</v>
+        <v>82317.60000000001</v>
       </c>
     </row>
     <row r="552">
@@ -25528,7 +25528,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>[600-211-1231 UT] OIL FILTER</t>
+          <t>[07063-01100 UT] ELEMENT</t>
         </is>
       </c>
       <c r="H552" t="n">
@@ -25540,7 +25540,7 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>179820</v>
+        <v>131246.4</v>
       </c>
     </row>
     <row r="553">
@@ -25574,7 +25574,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>[600-411-1151 UT] CARTRIDGE</t>
+          <t>[600-211-1231 UT] OIL FILTER</t>
         </is>
       </c>
       <c r="H553" t="n">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>220934.4</v>
+        <v>179820</v>
       </c>
     </row>
     <row r="554">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>[6125-81-7032 UT] ELEMENT ASS'Y</t>
+          <t>[600-311-8293 UT] CARTRIDGE</t>
         </is>
       </c>
       <c r="H554" t="n">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>905671.2</v>
+        <v>96081.60000000001</v>
       </c>
     </row>
     <row r="555">
@@ -25666,7 +25666,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>[07063-01100 UT] ELEMENT</t>
+          <t>[07063-01054 UT] ELEMENT</t>
         </is>
       </c>
       <c r="H555" t="n">
@@ -25678,7 +25678,7 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>131246.4</v>
+        <v>108691.2</v>
       </c>
     </row>
     <row r="556">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>[07000-02140 UT] O-RING</t>
+          <t>[07000-72110 UT] O-RING</t>
         </is>
       </c>
       <c r="H556" t="n">
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>82317.60000000001</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="557">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>[002559] CENTER BAUT BELAKANG HINO FM260</t>
+          <t>[HN00116-04] PER BELAKANG NO. 4 HINO RANGER HN00116-04</t>
         </is>
       </c>
       <c r="H559" t="n">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>95000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -25891,12 +25891,12 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>VALVE</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>[HN00116-04] PER BELAKANG NO. 4 HINO RANGER HN00116-04</t>
+          <t>[09203948] SEAL RUBBER TEFLON BRAKE CHAMBER 20-39-48MM</t>
         </is>
       </c>
       <c r="H560" t="n">
@@ -25908,7 +25908,7 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>0</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="561">
@@ -25937,12 +25937,12 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>VALVE</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>[09203948] SEAL RUBBER TEFLON BRAKE CHAMBER 20-39-48MM</t>
+          <t>[002559] CENTER BAUT BELAKANG HINO FM260</t>
         </is>
       </c>
       <c r="H561" t="n">
@@ -25954,7 +25954,7 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>125000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="562">
@@ -26126,11 +26126,11 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>[N43090-90060D] SEAL RODA BELAKANG HINO N43090-90060D</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I565" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>131531.26</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="566">
@@ -26172,11 +26172,11 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[N43090-90060D] SEAL RODA BELAKANG HINO N43090-90060D</t>
         </is>
       </c>
       <c r="H566" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>990000</v>
+        <v>131531.26</v>
       </c>
     </row>
     <row r="567">
@@ -26305,7 +26305,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -26351,7 +26351,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
@@ -26950,7 +26950,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t xml:space="preserve">[23401-LBH30] ELEMENT HINO RANGER </t>
+          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
         </is>
       </c>
       <c r="H583" t="n">
@@ -26962,7 +26962,7 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>74100</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="584">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
+          <t xml:space="preserve">[23401-LBH30] ELEMENT HINO RANGER </t>
         </is>
       </c>
       <c r="H584" t="n">
@@ -27008,7 +27008,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>36000</v>
+        <v>74100</v>
       </c>
     </row>
     <row r="585">
@@ -27037,16 +27037,16 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
+          <t>[003319] BAUT 14 PANJANG 3 CM</t>
         </is>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I585" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>0</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="586">
@@ -27088,11 +27088,11 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>[003319] BAUT 14 PANJANG 3 CM</t>
+          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
         </is>
       </c>
       <c r="H586" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>9600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -27175,12 +27175,12 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>SLIVE</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>[SLIVEHR21234] SLIVE HID R2 12 (3/4")</t>
+          <t>[MATAGURINPO4] MATA GURINDA POTONG 4" WD105X1.2X16MM</t>
         </is>
       </c>
       <c r="H588" t="n">
@@ -27192,7 +27192,7 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>81000</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="589">
@@ -27221,16 +27221,16 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>PTO</t>
+          <t>SLIVE</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>[SEALPTO30501] SEAL PTO HINO UK. 30X50X11</t>
+          <t>[SLIVEHR21234] SLIVE HID R2 12 (3/4")</t>
         </is>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>150000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="590">
@@ -27267,16 +27267,16 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>ENGINE</t>
+          <t>PTO</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>[MATAGURINPO4] MATA GURINDA POTONG 4" WD105X1.2X16MM</t>
+          <t>[SEALPTO30501] SEAL PTO HINO UK. 30X50X11</t>
         </is>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>4955</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="591">
@@ -27443,12 +27443,12 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>CEK</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
+          <t>[81550-LAA10] LAMPU STOP 81550-LAA10 KANAN FM260</t>
         </is>
       </c>
       <c r="H594" t="n">
@@ -27460,7 +27460,7 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>35000</v>
+        <v>93750</v>
       </c>
     </row>
     <row r="595">
@@ -27489,12 +27489,12 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>[81550-LAA10] LAMPU STOP 81550-LAA10 KANAN FM260</t>
+          <t>[81560-LAA10] LAMPU STOP KIRI 81560-LAA10 FM260</t>
         </is>
       </c>
       <c r="H595" t="n">
@@ -27535,12 +27535,12 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>[81560-LAA10] LAMPU STOP KIRI 81560-LAA10 FM260</t>
+          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
         </is>
       </c>
       <c r="H596" t="n">
@@ -27552,7 +27552,7 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>93750</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="597">
@@ -28301,16 +28301,16 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>ENGINE</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>[MATAGURINPO4] MATA GURINDA POTONG 4" WD105X1.2X16MM</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>4955</v>
+        <v>62224.38</v>
       </c>
     </row>
     <row r="614">
@@ -28347,16 +28347,16 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[MATAGURINPO4] MATA GURINDA POTONG 4" WD105X1.2X16MM</t>
         </is>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>62224.38</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="615">
@@ -28435,16 +28435,16 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
+          <t>[HN0105-05] PER DEPAN NO.5 HINO RANGER HN0105-5  FM260JD</t>
         </is>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>67792.5</v>
+        <v>706369.4</v>
       </c>
     </row>
     <row r="617">
@@ -28481,16 +28481,16 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>[HN0105-05] PER DEPAN NO.5 HINO RANGER HN0105-5  FM260JD</t>
+          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
         </is>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>706369.4</v>
+        <v>67792.5</v>
       </c>
     </row>
     <row r="618">
@@ -28624,11 +28624,11 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I620" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>70500</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="621">
@@ -28670,11 +28670,11 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H621" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I621" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>495000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="622">
@@ -28808,11 +28808,11 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>[KEPALAACCUKU] KEPALA ACCU KUNINGAN @1SET (2PCS)</t>
+          <t>[PART.0268] SEKRING 80 AMPER /FUSE HINO 80 AMP</t>
         </is>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I624" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="625">
@@ -28946,11 +28946,11 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>[PART.0268] SEKRING 80 AMPER /FUSE HINO 80 AMP</t>
+          <t>[KEPALAACCUKU] KEPALA ACCU KUNINGAN @1SET (2PCS)</t>
         </is>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -29033,16 +29033,16 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>EXHAUST</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t xml:space="preserve">[002982] PER ENGINE BREAK HINO FM260 </t>
         </is>
       </c>
       <c r="H629" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I629" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>990000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -29079,16 +29079,16 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>EXHAUST</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t xml:space="preserve">[002982] PER ENGINE BREAK HINO FM260 </t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I630" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>0</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="631">
@@ -29531,12 +29531,12 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>EXHAUST</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
+          <t>[S1669-12241] PIPE COOLANT HINO FM260JD</t>
         </is>
       </c>
       <c r="H640" t="n">
@@ -29548,7 +29548,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>59250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -29628,7 +29628,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>[S1669-12241] PIPE COOLANT HINO FM260JD</t>
+          <t>[002479] LEM THREEBOND PUTIH</t>
         </is>
       </c>
       <c r="H642" t="n">
@@ -29640,7 +29640,7 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>0</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="643">
@@ -29669,12 +29669,12 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>EXHAUST</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>[002479] LEM THREEBOND PUTIH</t>
+          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
         </is>
       </c>
       <c r="H643" t="n">
@@ -29686,7 +29686,7 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>15765</v>
+        <v>59250</v>
       </c>
     </row>
     <row r="644">
@@ -29812,11 +29812,11 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t>[DLLA1555ND52] NOSEL HINO FM260TI</t>
         </is>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>8550</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="647">
@@ -29904,11 +29904,11 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[SZ101-14090] BAUT AS BLOK HINO SZ101-14090</t>
         </is>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>124448.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -29950,11 +29950,11 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>[SZ341-18011] BAUT PEMBUANGAN OLI GARDAN</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I649" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>95250</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="650">
@@ -29996,11 +29996,11 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[MUR12] MUR 12</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H650" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>740</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="651">
@@ -30042,11 +30042,11 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>[S1669-12241] PIPE COOLANT HINO FM260JD</t>
+          <t>[MUR12] MUR 12</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="652">
@@ -30088,11 +30088,11 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>[DLLA1555ND52] NOSEL HINO FM260TI</t>
+          <t>[11701-E0100] CRANKSHAFT BEARING SET/METAL DDK (7PSANG) 11701-E0100</t>
         </is>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>1300000</v>
+        <v>985500</v>
       </c>
     </row>
     <row r="653">
@@ -30134,7 +30134,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t>[SZ311-79002] SEAL CRANSHAFT DEPAN SZ311-79002 FM260</t>
         </is>
       </c>
       <c r="H653" t="n">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>2850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -30180,11 +30180,11 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>[SZ101-14090] BAUT AS BLOK HINO SZ101-14090</t>
+          <t>[SZ341-18011] BAUT PEMBUANGAN OLI GARDAN</t>
         </is>
       </c>
       <c r="H654" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I654" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>0</v>
+        <v>95250</v>
       </c>
     </row>
     <row r="655">
@@ -30226,11 +30226,11 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>[11701-E0100] CRANKSHAFT BEARING SET/METAL DDK (7PSANG) 11701-E0100</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>985500</v>
+        <v>124448.76</v>
       </c>
     </row>
     <row r="656">
@@ -30272,7 +30272,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>[11115-E0200] GASKET CYLINDER HEAD/PACKING KOP HINO FM260 11115-E0200</t>
+          <t>[S1669-12241] PIPE COOLANT HINO FM260JD</t>
         </is>
       </c>
       <c r="H656" t="n">
@@ -30284,7 +30284,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>1834500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -30318,7 +30318,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
+          <t>[11118-1011L] KARET COVER COP 11118-1011L</t>
         </is>
       </c>
       <c r="H657" t="n">
@@ -30330,7 +30330,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>7000</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="658">
@@ -30364,11 +30364,11 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
         </is>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I658" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>8550</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="659">
@@ -30410,11 +30410,11 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>[SZ311-79002] SEAL CRANSHAFT DEPAN SZ311-79002 FM260</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I659" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>0</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="660">
@@ -30456,7 +30456,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>[11118-1011L] KARET COVER COP 11118-1011L</t>
+          <t>[11115-E0200] GASKET CYLINDER HEAD/PACKING KOP HINO FM260 11115-E0200</t>
         </is>
       </c>
       <c r="H660" t="n">
@@ -30468,7 +30468,7 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>103500</v>
+        <v>1834500</v>
       </c>
     </row>
     <row r="661">
@@ -30627,12 +30627,12 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>[HN0105-01] PER DEPAN NO.1 HINO FM260JD HN0105-01</t>
+          <t>[WD40-330] WD40 330ML</t>
         </is>
       </c>
       <c r="H664" t="n">
@@ -30644,7 +30644,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>769463.91</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="665">
@@ -30673,12 +30673,12 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>[WD40-330] WD40 330ML</t>
+          <t>[HN0105-01] PER DEPAN NO.1 HINO FM260JD HN0105-01</t>
         </is>
       </c>
       <c r="H665" t="n">
@@ -30690,7 +30690,7 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>73000</v>
+        <v>769463.91</v>
       </c>
     </row>
     <row r="666">
@@ -30719,24 +30719,24 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>HYDRAULIC&amp;GEAR</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
+          <t>[MUR17] MUR 17</t>
         </is>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>0</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="667">
@@ -30765,24 +30765,24 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>TRANSMISI</t>
+          <t>HYDRAULIC&amp;GEAR</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
+          <t>[OLIMEDISAE10] OLI MEDITRAN SAE 10 PERTAMINA @209 LTR</t>
         </is>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>1195500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -30811,16 +30811,16 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>TRANSMISI</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>[MUR17] MUR 17</t>
+          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
         </is>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>1551</v>
+        <v>1195500</v>
       </c>
     </row>
     <row r="669">
@@ -31226,7 +31226,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>[002964] SKUN KABEL 50-10 MM</t>
+          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
         </is>
       </c>
       <c r="H677" t="n">
@@ -31238,7 +31238,7 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>24000</v>
+        <v>1787301.64</v>
       </c>
     </row>
     <row r="678">
@@ -31272,7 +31272,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>[1800100] ACCU YUASA 65D26R-NS70 12V 65Ah</t>
+          <t>[002964] SKUN KABEL 50-10 MM</t>
         </is>
       </c>
       <c r="H678" t="n">
@@ -31284,7 +31284,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>1787301.64</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="679">
@@ -31447,16 +31447,16 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>MUFFLER</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
+          <t>[MUR17] MUR 17</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I682" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>10000</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="683">
@@ -31493,16 +31493,16 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>[MUR17] MUR 17</t>
+          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I683" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>5170</v>
+        <v>102750</v>
       </c>
     </row>
     <row r="684">
@@ -31539,12 +31539,12 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>MUFFLER</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>[17451-EW010] PACKING TURBO MANIFOL ASLI 17451-EW010 (6 LUBANG)</t>
+          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
         </is>
       </c>
       <c r="H684" t="n">
@@ -31556,7 +31556,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>102750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="685">
@@ -31711,16 +31711,16 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>VESSEL</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>[TUTUPTSHN500] TUTUP TANGKI SOLAR HINO 500</t>
+          <t>[003319] BAUT 14 PANJANG 3 CM</t>
         </is>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I688" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>120000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="689">
@@ -31757,16 +31757,16 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>VESSEL</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>[003319] BAUT 14 PANJANG 3 CM</t>
+          <t>[TUTUPTSHN500] TUTUP TANGKI SOLAR HINO 500</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I689" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>4800</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="690">
@@ -31895,12 +31895,12 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>KING</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>[04431-JAA70] KING PIN KIT HINO FM260JD</t>
+          <t>[003319] BAUT 14 PANJANG 3 CM</t>
         </is>
       </c>
       <c r="H692" t="n">
@@ -31912,7 +31912,7 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>1729500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="693">
@@ -31941,12 +31941,12 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>KING</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>[003319] BAUT 14 PANJANG 3 CM</t>
+          <t>[04431-JAA70] KING PIN KIT HINO FM260JD</t>
         </is>
       </c>
       <c r="H693" t="n">
@@ -31958,7 +31958,7 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>2400</v>
+        <v>1729500</v>
       </c>
     </row>
     <row r="694">
@@ -32899,16 +32899,16 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>GREASE</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
+          <t>[001230] NEPLE GREASE LURUS 8 MM</t>
         </is>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>1063500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="715">
@@ -32945,12 +32945,12 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>CLUTCH</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>[HN00116-05] PER BELAKANG NO.5 HINO RANGER HN00116-05</t>
+          <t>[S4745-11310] PEN SEPATU KAMPAS REM BELAKANG HINO FM260JD</t>
         </is>
       </c>
       <c r="H715" t="n">
@@ -32962,7 +32962,7 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>0</v>
+        <v>1063500</v>
       </c>
     </row>
     <row r="716">
@@ -32991,16 +32991,16 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>GREASE</t>
+          <t>CLUTCH</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>[001230] NEPLE GREASE LURUS 8 MM</t>
+          <t>[HN00116-05] PER BELAKANG NO.5 HINO RANGER HN00116-05</t>
         </is>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -33134,11 +33134,11 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>[002713] BAUT STABILIZER 30 CM</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H719" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I719" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>210000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="720">
@@ -33180,11 +33180,11 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[002713] BAUT STABILIZER 30 CM</t>
         </is>
       </c>
       <c r="H720" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I720" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>990000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="721">
@@ -33263,12 +33263,12 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>VALVE</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>[CONECTOR.04] CONEKTOR HOSE ANGIN NO.12</t>
+          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
         </is>
       </c>
       <c r="H722" t="n">
@@ -33280,7 +33280,7 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>84196</v>
+        <v>258750</v>
       </c>
     </row>
     <row r="723">
@@ -33309,12 +33309,12 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>VALVE</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>[77601-EW033] BAND S/A FUEL TANK 77601-EW033</t>
+          <t>[CONECTOR.04] CONEKTOR HOSE ANGIN NO.12</t>
         </is>
       </c>
       <c r="H723" t="n">
@@ -33326,7 +33326,7 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>258750</v>
+        <v>84196</v>
       </c>
     </row>
     <row r="724">
@@ -33401,16 +33401,16 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>[KLEMSELANGS3] KLEM SELANG STAINLES 3"</t>
+          <t>[16400-EW010] RADIATOR 16400-EW010 FM260JD</t>
         </is>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I725" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>0</v>
+        <v>2956500</v>
       </c>
     </row>
     <row r="726">
@@ -33447,7 +33447,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -33493,16 +33493,16 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>ENGINE</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>[16400-EW010] RADIATOR 16400-EW010 FM260JD</t>
+          <t>[KLEMSELANGS3] KLEM SELANG STAINLES 3"</t>
         </is>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>2956500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -33585,7 +33585,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -33866,19 +33866,19 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>[001229] NEPPLE GREASE LURUS 10 MM</t>
+          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
         </is>
       </c>
       <c r="H735" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>50000</v>
+        <v>132132.36</v>
       </c>
     </row>
     <row r="736">
@@ -33912,19 +33912,19 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>[GREASESTAT15] GREASE BEARING STATES 15 KGS/PAIL</t>
+          <t>[001229] NEPPLE GREASE LURUS 10 MM</t>
         </is>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>132132.36</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="737">
@@ -34556,7 +34556,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
+          <t>[SEALTAPE1007] SEAL TAPE 1"X0.075MMX10M</t>
         </is>
       </c>
       <c r="H750" t="n">
@@ -34568,7 +34568,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>59250</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="751">
@@ -34648,11 +34648,11 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
+          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
         </is>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I752" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>62224.38</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="753">
@@ -34694,11 +34694,11 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>[BAUT.020] BAUT TANAM 14 P.5CM</t>
+          <t>[OLIP0041] OLI POWER STEERING MERK PRESTONE 1 LITER</t>
         </is>
       </c>
       <c r="H753" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I753" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>60000</v>
+        <v>62224.38</v>
       </c>
     </row>
     <row r="754">
@@ -34740,7 +34740,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>[SEALTAPE1007] SEAL TAPE 1"X0.075MMX10M</t>
+          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
         </is>
       </c>
       <c r="H754" t="n">
@@ -34752,7 +34752,7 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>4000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="755">
@@ -34786,7 +34786,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
+          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
         </is>
       </c>
       <c r="H755" t="n">
@@ -34798,7 +34798,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>36000</v>
+        <v>59250</v>
       </c>
     </row>
     <row r="756">
@@ -35104,11 +35104,11 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
+          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
         </is>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I762" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>30000</v>
+        <v>59250</v>
       </c>
     </row>
     <row r="763">
@@ -35150,11 +35150,11 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
+          <t>[003040] BAUT TANAM 12 PANJANG 6 CM BAJA</t>
         </is>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I763" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>59250</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="764">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
+          <t>[S1206-EW050] MONTING MESIN BELAKANG HINO FM260JD S1206-EW050</t>
         </is>
       </c>
       <c r="H769" t="n">
@@ -35434,7 +35434,7 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>1195500</v>
+        <v>1249500</v>
       </c>
     </row>
     <row r="770">
@@ -35468,7 +35468,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>[S1206-EW050] MONTING MESIN BELAKANG HINO FM260JD S1206-EW050</t>
+          <t>[S1203-13040L] BANTALAN MESIN DEPAN HINO FM260TI</t>
         </is>
       </c>
       <c r="H770" t="n">
@@ -35480,7 +35480,7 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>1249500</v>
+        <v>1195500</v>
       </c>
     </row>
     <row r="771">
@@ -35606,7 +35606,7 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
+          <t>[003470] BALON LAMPU H4 24V</t>
         </is>
       </c>
       <c r="H773" t="n">
@@ -35618,7 +35618,7 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>35000</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="774">
@@ -35652,7 +35652,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>[003470] BALON LAMPU H4 24V</t>
+          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
         </is>
       </c>
       <c r="H774" t="n">
@@ -35664,7 +35664,7 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>33500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="775">
@@ -35786,11 +35786,11 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>[001186] LEM BESI DEXTONE</t>
+          <t>[KLEMSELANGS3] KLEM SELANG STAINLES 3"</t>
         </is>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -35832,11 +35832,11 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>[KLEMSELANGS3] KLEM SELANG STAINLES 3"</t>
+          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
         </is>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>0</v>
+        <v>120009</v>
       </c>
     </row>
     <row r="779">
@@ -35878,11 +35878,11 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
+          <t>[001186] LEM BESI DEXTONE</t>
         </is>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>120009</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="780">
@@ -36057,16 +36057,16 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>ELECTRICAL</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>[WD40-330] WD40 330ML</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>73000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="784">
@@ -36103,16 +36103,16 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>ELECTRICAL</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[WD40-330] WD40 330ML</t>
         </is>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="785">
@@ -36149,12 +36149,12 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>MUFFLER</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>[HN00116-11] PER BELAKANG NO. 11 HINO RANGER HN00116-11</t>
+          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
         </is>
       </c>
       <c r="H785" t="n">
@@ -36166,7 +36166,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>236423.48</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="786">
@@ -36195,12 +36195,12 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>MUFFLER</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
+          <t>[HN00116-11] PER BELAKANG NO. 11 HINO RANGER HN00116-11</t>
         </is>
       </c>
       <c r="H786" t="n">
@@ -36212,7 +36212,7 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>67792.5</v>
+        <v>236423.48</v>
       </c>
     </row>
     <row r="787">
@@ -36287,12 +36287,12 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>[27X93X380] BEHEL PER BELAKANG HINO 27X93X380</t>
+          <t>[MINYAKREMPR1] MINYAK REM PRESTONE @1000ML/KALENG</t>
         </is>
       </c>
       <c r="H788" t="n">
@@ -36304,7 +36304,7 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>170000</v>
+        <v>67792.5</v>
       </c>
     </row>
     <row r="789">
@@ -36384,11 +36384,11 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
+          <t>[KP-1000] AMPLAS 1000</t>
         </is>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I790" t="inlineStr">
         <is>
@@ -36396,7 +36396,7 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>35000</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="791">
@@ -36430,11 +36430,11 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
+          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
         </is>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I791" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>180013.5</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="792">
@@ -36476,11 +36476,11 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>[KP-1000] AMPLAS 1000</t>
+          <t>[TBA0,5MM] PACKING TBA 0,5 1MTR X 1MTR</t>
         </is>
       </c>
       <c r="H792" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I792" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>11400</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="793">
@@ -36522,11 +36522,11 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t xml:space="preserve">[R243P150] AMPLAS ROL P150 </t>
+          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
         </is>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I793" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>7000</v>
+        <v>180013.5</v>
       </c>
     </row>
     <row r="794">
@@ -36568,11 +36568,11 @@
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>[TBA0,5MM] PACKING TBA 0,5 1MTR X 1MTR</t>
+          <t>[KEPALAACCUTI] KEPALA ACCU TIMAH @1SET (2PCS)</t>
         </is>
       </c>
       <c r="H794" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I794" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>13500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="795">
@@ -36886,7 +36886,7 @@
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>[SZ311-90005] SEAL GARDAN DEPAN HINO SZ311-90005</t>
+          <t>[CONECTOR.06] CONEKTOR CHAMBER 10MM-DRAT 1 LURUS SELANG 6MM</t>
         </is>
       </c>
       <c r="H801" t="n">
@@ -36898,7 +36898,7 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>186000</v>
+        <v>20480</v>
       </c>
     </row>
     <row r="802">
@@ -36932,7 +36932,7 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>[CONECTOR.06] CONEKTOR CHAMBER 10MM-DRAT 1 LURUS SELANG 6MM</t>
+          <t>[SZ311-90005] SEAL GARDAN DEPAN HINO SZ311-90005</t>
         </is>
       </c>
       <c r="H802" t="n">
@@ -36944,7 +36944,7 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>20480</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="803">
@@ -37300,11 +37300,11 @@
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>[S49U0-EW060] CHAMBER ASSY BREAK KANAN HINO FM260</t>
+          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
         </is>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>6000000</v>
+        <v>108032</v>
       </c>
     </row>
     <row r="811">
@@ -37346,11 +37346,11 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
+          <t>[S49U0-EW060] CHAMBER ASSY BREAK KANAN HINO FM260</t>
         </is>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>108032</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="812">
@@ -38023,7 +38023,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>BODY</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -38069,12 +38069,12 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>VALVE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>[CONECTOR.04] CONEKTOR HOSE ANGIN NO.12</t>
+          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
         </is>
       </c>
       <c r="H827" t="n">
@@ -38086,7 +38086,7 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>84196</v>
+        <v>54016</v>
       </c>
     </row>
     <row r="828">
@@ -38161,12 +38161,12 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>VALVE</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
+          <t>[CONECTOR.04] CONEKTOR HOSE ANGIN NO.12</t>
         </is>
       </c>
       <c r="H829" t="n">
@@ -38178,7 +38178,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>54016</v>
+        <v>84196</v>
       </c>
     </row>
     <row r="830">
@@ -38212,7 +38212,7 @@
       </c>
       <c r="G830" t="inlineStr">
         <is>
-          <t>[PART.1925] KARET SHOCKBREKER HINO</t>
+          <t>[SZ101-14090] BAUT AS BLOK HINO SZ101-14090</t>
         </is>
       </c>
       <c r="H830" t="n">
@@ -38224,7 +38224,7 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -38304,7 +38304,7 @@
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>[SZ101-14090] BAUT AS BLOK HINO SZ101-14090</t>
+          <t>[PART.1925] KARET SHOCKBREKER HINO</t>
         </is>
       </c>
       <c r="H832" t="n">
@@ -38316,7 +38316,7 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="833">
@@ -38856,11 +38856,11 @@
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I844" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>70500</v>
+        <v>1980000</v>
       </c>
     </row>
     <row r="845">
@@ -38902,11 +38902,11 @@
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H845" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I845" t="inlineStr">
         <is>
@@ -38914,7 +38914,7 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>1980000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="846">
@@ -39667,16 +39667,16 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>ENGINE</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>[KLEMSELANGS4] KLEM SELANG STAINLES 4"</t>
+          <t>[002940] BAUT 17 PANJANG 5 CM</t>
         </is>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I862" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>20000</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="863">
@@ -39713,16 +39713,16 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
+          <t>[KLEMSELANGS4] KLEM SELANG STAINLES 4"</t>
         </is>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I863" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>180013.5</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="864">
@@ -39759,16 +39759,16 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>RADIATOR</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
         <is>
-          <t>[002940] BAUT 17 PANJANG 5 CM</t>
+          <t>[001186] LEM BESI DEXTONE</t>
         </is>
       </c>
       <c r="H864" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>8800</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="865">
@@ -39805,16 +39805,16 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>RADIATOR</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
         <is>
-          <t>[001186] LEM BESI DEXTONE</t>
+          <t>[003837] AIR COOLANT MASTER 4 LITER/GELON</t>
         </is>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I865" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>40000</v>
+        <v>180013.5</v>
       </c>
     </row>
     <row r="866">
@@ -41673,7 +41673,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>UNDERCARRIAGE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -41991,16 +41991,16 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>EXHAUST</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
+          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
         </is>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>59250</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="915">
@@ -42037,16 +42037,16 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>EXHAUST</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BAUT.007] BAUT 14X 5 CM </t>
+          <t>[17173-EW010] PACKING MANIPOL TURBO GT1251 (4 LUBANG) 17173-EW010</t>
         </is>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>2800</v>
+        <v>59250</v>
       </c>
     </row>
     <row r="916">
@@ -42083,12 +42083,12 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>WELDER</t>
+          <t>FILTER</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>[003615] LEM THREEBOND MERAH</t>
+          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
         </is>
       </c>
       <c r="H916" t="n">
@@ -42100,7 +42100,7 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="917">
@@ -42129,12 +42129,12 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>FILTER</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>[23414-LAA10] FILTER SOLAR ATAS HINO (HOP) FM260JD</t>
+          <t>[003615] LEM THREEBOND MERAH</t>
         </is>
       </c>
       <c r="H917" t="n">
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="918">
@@ -42623,12 +42623,12 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>MUFFLER</t>
+          <t>SPRING</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>[HN00116-11] PER BELAKANG NO. 11 HINO RANGER HN00116-11</t>
+          <t>[HN00116-01] PER BELAKANG NO. 1 HINO RANGER HN00116-01</t>
         </is>
       </c>
       <c r="H928" t="n">
@@ -42640,7 +42640,7 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>236423.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -42669,12 +42669,12 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>SPRING</t>
+          <t>MUFFLER</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>[HN00116-01] PER BELAKANG NO. 1 HINO RANGER HN00116-01</t>
+          <t>[HN00116-11] PER BELAKANG NO. 11 HINO RANGER HN00116-11</t>
         </is>
       </c>
       <c r="H929" t="n">
@@ -42686,7 +42686,7 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>0</v>
+        <v>236423.48</v>
       </c>
     </row>
     <row r="930">
@@ -42904,7 +42904,7 @@
       </c>
       <c r="G934" t="inlineStr">
         <is>
-          <t>[001229] NEPPLE GREASE LURUS 10 MM</t>
+          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
         </is>
       </c>
       <c r="H934" t="n">
@@ -42916,7 +42916,7 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>10000</v>
+        <v>54016</v>
       </c>
     </row>
     <row r="935">
@@ -42950,7 +42950,7 @@
       </c>
       <c r="G935" t="inlineStr">
         <is>
-          <t>[S4767-E0020] COLLAR,AIR BRAKE S4767-E0020 HINO</t>
+          <t>[SZ010-79005] VALVE WASTE GATE SZ010-79005 HINO</t>
         </is>
       </c>
       <c r="H935" t="n">
@@ -42962,7 +42962,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>0</v>
+        <v>471000</v>
       </c>
     </row>
     <row r="936">
@@ -42996,7 +42996,7 @@
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
+          <t>[S4755-EW011] CRANSAFT AIR BREAK S4755-EW011 HINO</t>
         </is>
       </c>
       <c r="H936" t="n">
@@ -43008,7 +43008,7 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>70500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -43042,11 +43042,11 @@
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
+          <t>[001229] NEPPLE GREASE LURUS 10 MM</t>
         </is>
       </c>
       <c r="H937" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I937" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>742500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="938">
@@ -43088,7 +43088,7 @@
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>[CONECTOR.09] CONEKTOR CHAMBER LURUS NO.12 M16 DRAT 1.25</t>
+          <t>[S4767-E0020] COLLAR,AIR BRAKE S4767-E0020 HINO</t>
         </is>
       </c>
       <c r="H938" t="n">
@@ -43100,7 +43100,7 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>54016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -43134,11 +43134,11 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>[S4755-EW011] CRANSAFT AIR BREAK S4755-EW011 HINO</t>
+          <t>[04477-JAE60] KAMPAS REM BELAKANG HINO RANGER 04477-JAE60</t>
         </is>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I939" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>0</v>
+        <v>742500</v>
       </c>
     </row>
     <row r="940">
@@ -43180,7 +43180,7 @@
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>[SZ010-79005] VALVE WASTE GATE SZ010-79005 HINO</t>
+          <t>[S4745-71120] LOCK PEN SEPATU KAMPAS HINO FM260JD</t>
         </is>
       </c>
       <c r="H940" t="n">
@@ -43192,7 +43192,7 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>471000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="941">
@@ -43359,7 +43359,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>UNDERCARRIAGE</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -44125,16 +44125,16 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>VALVE</t>
+          <t>PENGEREMAN</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>[SZ010-79005] VALVE WASTE GATE SZ010-79005 HINO</t>
+          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
         </is>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I961" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>471000</v>
+        <v>648648.6800000001</v>
       </c>
     </row>
     <row r="962">
@@ -44171,16 +44171,16 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>PENGEREMAN</t>
+          <t>VALVE</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>[N55542-Z2005D] KARET STABILIZER NISSAN</t>
+          <t>[SZ010-79005] VALVE WASTE GATE SZ010-79005 HINO</t>
         </is>
       </c>
       <c r="H962" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I962" t="inlineStr">
         <is>
@@ -44188,7 +44188,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>648648.6800000001</v>
+        <v>471000</v>
       </c>
     </row>
     <row r="963">
